--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.sharma\Desktop\folder1\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCACF268-E272-45E2-AD99-A3C525C39699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD778C-9B69-4D6C-ACD5-C9C6746C991D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
   <si>
-    <t>test1test1</t>
-  </si>
-  <si>
-    <t>test1</t>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,27 +358,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
